--- a/biology/Médecine/Maladie_de_Morquio/Maladie_de_Morquio.xlsx
+++ b/biology/Médecine/Maladie_de_Morquio/Maladie_de_Morquio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Morquio ou syndrome de Morquio, un type de mucopolysaccharidose parmi d'autres, le type IV, est une maladie lysosomale caractérisée par un déficit N-acétylgalactosamine-6-sulfatase (en), enzyme lysosomale avec absence dégradation du kératane-sulfate, qui dès lors s'accumule dans les tissus.  
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'atteinte ostéo-articulaire est au premier plan, et le syndrome de Morquio se présente avant tout comme une ostéodysplasie spondylo-épiphyso-métaphysaire. Son incidence est variable selon les pays :
 1/76 000 en Irlande du Nord ;
@@ -547,11 +561,48 @@
           <t>Métabolisme - Pathogénie - Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir : Transmission autosomique récessive.
-Présentation clinique
-« Bébé normal » : les premiers signes cliniques apparaissent en général dans la 1re année avant l’acquisition de la marche, au fur et à mesure de la « thésaurismose » des  glycosaminoglycanes. De fait, la vitesse de croissance étudiée chez 364 sujets atteints de Morquio A se trouve réduite dès la fin de la première année[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maladie_de_Morquio</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Morquio</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Métabolisme - Pathogénie - Génétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Présentation clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Bébé normal » : les premiers signes cliniques apparaissent en général dans la 1re année avant l’acquisition de la marche, au fur et à mesure de la « thésaurismose » des  glycosaminoglycanes. De fait, la vitesse de croissance étudiée chez 364 sujets atteints de Morquio A se trouve réduite dès la fin de la première année.
 Non rares sont les observations d'enfants qui présentent, à la suite d'une chute sur le crâne en apparence banale, une  tétraparésie ou même une tétraplégie par luxation traumatique sans instabilité avérée. Le diagnostic est souvent porté plus tardivement (entre 3 et 15 ans).
 Les signes du syndrome de Morquio sont les suivants :
 infléchissement de la croissance staturale avec nanisme à tronc court ;
@@ -562,8 +613,43 @@
 genu valgum ;
 cyphose thoracique et protrusion sternale (pectus carinatum) importante et caractéristique.
 Gros foie et grosse rate ne seraient pas signes évocateurs de syndrome de Morquio. Le développement psycho-intellectuel est normal. La maladie de Morquio de type A se traduit par une ostéodysplasie spondylo-épiphyso-métaphysaire.
-Formes étiologiques et clinique
-Il existe plusieurs causes au syndrome de Morquio :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maladie_de_Morquio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Morquio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Métabolisme - Pathogénie - Génétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Formes étiologiques et clinique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs causes au syndrome de Morquio :
 Morquio A, formes sévères à formes modérées ;
 Morquio B.L’expression clinique de la maladie est très variable d’un patient à l’autre.
 S'il est habituel de distinguer forme sévère classique et formes modérées, le continuum est bien là, entre ces deux extrêmes :
@@ -577,74 +663,83 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Maladie_de_Morquio</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Maladie_de_Morquio</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Complications</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Platyspondylie, cyphose
-Hypoplasie de l'odontoïde, instabilité atloïdo-axoïdienne</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Maladie_de_Morquio</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maladie_de_Morquio</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prise en charge orthopédique
-Le traitement est essentiellement symptomatique. Il repose en particulier sur une prise en charge orthopédique assez spécialisée. 
-La prise en charge de l'instabilité atloïdoaxoïdienne est souvent indiquée : en dépit du risque opératoire[2], l'arthrodèse ou « fusion » atloïdo-axoïdienne[3] est l'opération conseillée (Chirurgie de malformations de la colonne vertébrale).
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prise en charge orthopédique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement est essentiellement symptomatique. Il repose en particulier sur une prise en charge orthopédique assez spécialisée. 
+La prise en charge de l'instabilité atloïdoaxoïdienne est souvent indiquée : en dépit du risque opératoire, l'arthrodèse ou « fusion » atloïdo-axoïdienne est l'opération conseillée (Chirurgie de malformations de la colonne vertébrale).
 La gêne à la marche est (trop) volontiers mise sur le compte du genu valgum. Le chirurgien, prudent, doit s'assurer que la  colonne vertébrale (et plus particulièrement le craniocervicum[Note 1] ) n'est pas aussi en cause dans ces troubles de la marche.
 En cas d’intervention, le risque anesthésique n'est pas exclusivement lié à une possible instabilité cervicale (risques à l’intubation). En effet :
-les voies aériennes (trachéomalacie) et la cage thoracique sont « malformées »[2] ;
+les voies aériennes (trachéomalacie) et la cage thoracique sont « malformées » ;
 la ventilation mécanique (assistée) est rendue aléatoire par obstruction des voies aériennes et/ou compliance faible d'une paroi thoracique raide ;
 un collapsus complet de la trachée est possible et ce d'autant qu'il y a attitude en flexion de la tête et paraplégie (post-fusion cervicale).
 L'espérance de vie est, sinon, habituellement normale.
-Traitement médicamenteux
-La Food and Drug Administration a approuvé le 14 février 2014 le premier traitement pour la mucopolysaccharidose de type IVA, un traitement enzymatique de substitution, l'élosulfase alfa (Vimizim)[4]. Le même traitement a été appouvé en France le 1er octobre 2014[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maladie_de_Morquio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Morquio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement médicamenteux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Food and Drug Administration a approuvé le 14 février 2014 le premier traitement pour la mucopolysaccharidose de type IVA, un traitement enzymatique de substitution, l'élosulfase alfa (Vimizim). Le même traitement a été appouvé en France le 1er octobre 2014.
 </t>
         </is>
       </c>
